--- a/PoundPupLegacy.Convert/files/BasicSecondLevelSubdivisionsInInformalPrimarySubdivision.xlsx
+++ b/PoundPupLegacy.Convert/files/BasicSecondLevelSubdivisionsInInformalPrimarySubdivision.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_af\source\repos\PoundPupLegacy\PoundPupLegacy.Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_af\source\repos\PoundPupLegacy\PoundPupLegacy.Convert\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE94C07-299A-4B38-BC4B-D2CDF9ABE4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEC8F3-91D0-4A2E-A5DC-EE2A205CAED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="5000" windowWidth="28810" windowHeight="15460" xr2:uid="{84FAA0E3-E25F-451F-9661-4EC3D7E3246E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{84FAA0E3-E25F-451F-9661-4EC3D7E3246E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="400">
   <si>
     <t>Id</t>
   </si>
@@ -1222,6 +1222,18 @@
   </si>
   <si>
     <t>TH-96</t>
+  </si>
+  <si>
+    <t>Subdivision_type_name</t>
+  </si>
+  <si>
+    <t>Prefecture</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Metropolitan administration</t>
   </si>
 </sst>
 </file>
@@ -1574,21 +1586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1787CB32-94F7-4424-BA3F-11F22ADA4BF3}">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:G125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" customWidth="1"/>
     <col min="2" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1625,8 +1639,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1663,8 +1680,11 @@
       <c r="L2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1701,8 +1721,11 @@
       <c r="L3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1739,8 +1762,11 @@
       <c r="L4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1777,8 +1803,11 @@
       <c r="L5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1815,8 +1844,11 @@
       <c r="L6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1853,8 +1885,11 @@
       <c r="L7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1891,8 +1926,11 @@
       <c r="L8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1929,8 +1967,11 @@
       <c r="L9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1967,8 +2008,11 @@
       <c r="L10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2005,8 +2049,11 @@
       <c r="L11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2043,8 +2090,11 @@
       <c r="L12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2081,8 +2131,11 @@
       <c r="L13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2119,8 +2172,11 @@
       <c r="L14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2157,8 +2213,11 @@
       <c r="L15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2195,8 +2254,11 @@
       <c r="L16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2233,8 +2295,11 @@
       <c r="L17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2271,8 +2336,11 @@
       <c r="L18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2309,8 +2377,11 @@
       <c r="L19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2347,8 +2418,11 @@
       <c r="L20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2385,8 +2459,11 @@
       <c r="L21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2423,8 +2500,11 @@
       <c r="L22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2461,8 +2541,11 @@
       <c r="L23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2499,8 +2582,11 @@
       <c r="L24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2537,8 +2623,11 @@
       <c r="L25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2575,8 +2664,11 @@
       <c r="L26" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2613,8 +2705,11 @@
       <c r="L27" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2651,8 +2746,11 @@
       <c r="L28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2689,8 +2787,11 @@
       <c r="L29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2727,8 +2828,11 @@
       <c r="L30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2765,8 +2869,11 @@
       <c r="L31" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2803,8 +2910,11 @@
       <c r="L32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2841,8 +2951,11 @@
       <c r="L33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2879,8 +2992,11 @@
       <c r="L34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2917,8 +3033,11 @@
       <c r="L35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2955,8 +3074,11 @@
       <c r="L36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2993,8 +3115,11 @@
       <c r="L37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3031,8 +3156,11 @@
       <c r="L38" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3069,8 +3197,11 @@
       <c r="L39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3107,8 +3238,11 @@
       <c r="L40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3145,8 +3279,11 @@
       <c r="L41" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3183,8 +3320,11 @@
       <c r="L42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M42" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3221,8 +3361,11 @@
       <c r="L43" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M43" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3259,8 +3402,11 @@
       <c r="L44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3297,8 +3443,11 @@
       <c r="L45" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3335,8 +3484,11 @@
       <c r="L46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3373,8 +3525,11 @@
       <c r="L47" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3411,8 +3566,11 @@
       <c r="L48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3449,8 +3607,11 @@
       <c r="L49" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3487,8 +3648,11 @@
       <c r="L50" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3525,8 +3689,11 @@
       <c r="L51" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3563,8 +3730,11 @@
       <c r="L52" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="L53" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M53" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3639,8 +3812,11 @@
       <c r="L54" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3677,8 +3853,11 @@
       <c r="L55" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M55" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3715,8 +3894,11 @@
       <c r="L56" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M56" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3753,8 +3935,11 @@
       <c r="L57" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3791,8 +3976,11 @@
       <c r="L58" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3829,8 +4017,11 @@
       <c r="L59" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M59" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3867,8 +4058,11 @@
       <c r="L60" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0</v>
       </c>
@@ -3905,8 +4099,11 @@
       <c r="L61" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M61" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3943,8 +4140,11 @@
       <c r="L62" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M62" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3981,8 +4181,11 @@
       <c r="L63" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4019,8 +4222,11 @@
       <c r="L64" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4057,8 +4263,11 @@
       <c r="L65" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4095,8 +4304,11 @@
       <c r="L66" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M66" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4133,8 +4345,11 @@
       <c r="L67" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -4171,8 +4386,11 @@
       <c r="L68" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M68" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -4209,8 +4427,11 @@
       <c r="L69" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M69" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4247,8 +4468,11 @@
       <c r="L70" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M70" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4285,8 +4509,11 @@
       <c r="L71" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -4323,8 +4550,11 @@
       <c r="L72" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="L73" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M73" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4399,8 +4632,11 @@
       <c r="L74" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M74" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4437,8 +4673,11 @@
       <c r="L75" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M75" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0</v>
       </c>
@@ -4475,8 +4714,11 @@
       <c r="L76" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0</v>
       </c>
@@ -4513,8 +4755,11 @@
       <c r="L77" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M77" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0</v>
       </c>
@@ -4551,8 +4796,11 @@
       <c r="L78" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M78" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4589,8 +4837,11 @@
       <c r="L79" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M79" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0</v>
       </c>
@@ -4627,8 +4878,11 @@
       <c r="L80" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M80" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0</v>
       </c>
@@ -4665,8 +4919,11 @@
       <c r="L81" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M81" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4703,8 +4960,11 @@
       <c r="L82" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M82" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0</v>
       </c>
@@ -4741,8 +5001,11 @@
       <c r="L83" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M83" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0</v>
       </c>
@@ -4779,8 +5042,11 @@
       <c r="L84" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M84" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4817,8 +5083,11 @@
       <c r="L85" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M85" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -4855,8 +5124,11 @@
       <c r="L86" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M86" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -4893,8 +5165,11 @@
       <c r="L87" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M87" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0</v>
       </c>
@@ -4931,8 +5206,11 @@
       <c r="L88" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0</v>
       </c>
@@ -4969,8 +5247,11 @@
       <c r="L89" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0</v>
       </c>
@@ -5007,8 +5288,11 @@
       <c r="L90" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -5045,8 +5329,11 @@
       <c r="L91" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -5083,8 +5370,11 @@
       <c r="L92" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M92" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0</v>
       </c>
@@ -5121,8 +5411,11 @@
       <c r="L93" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0</v>
       </c>
@@ -5159,8 +5452,11 @@
       <c r="L94" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0</v>
       </c>
@@ -5197,8 +5493,11 @@
       <c r="L95" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M95" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0</v>
       </c>
@@ -5235,8 +5534,11 @@
       <c r="L96" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M96" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0</v>
       </c>
@@ -5273,8 +5575,11 @@
       <c r="L97" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M97" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0</v>
       </c>
@@ -5311,8 +5616,11 @@
       <c r="L98" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0</v>
       </c>
@@ -5349,8 +5657,11 @@
       <c r="L99" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M99" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5387,8 +5698,11 @@
       <c r="L100" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M100" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0</v>
       </c>
@@ -5425,8 +5739,11 @@
       <c r="L101" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M101" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -5463,8 +5780,11 @@
       <c r="L102" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M102" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5501,8 +5821,11 @@
       <c r="L103" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M103" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5539,8 +5862,11 @@
       <c r="L104" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M104" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5577,8 +5903,11 @@
       <c r="L105" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M105" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5615,8 +5944,11 @@
       <c r="L106" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M106" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5653,8 +5985,11 @@
       <c r="L107" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M107" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -5691,8 +6026,11 @@
       <c r="L108" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -5729,8 +6067,11 @@
       <c r="L109" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0</v>
       </c>
@@ -5767,8 +6108,11 @@
       <c r="L110" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0</v>
       </c>
@@ -5805,8 +6149,11 @@
       <c r="L111" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M111" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -5843,8 +6190,11 @@
       <c r="L112" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M112" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -5881,8 +6231,11 @@
       <c r="L113" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M113" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -5919,8 +6272,11 @@
       <c r="L114" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M114" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -5957,8 +6313,11 @@
       <c r="L115" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M115" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -5995,8 +6354,11 @@
       <c r="L116" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M116" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -6033,8 +6395,11 @@
       <c r="L117" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M117" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -6071,8 +6436,11 @@
       <c r="L118" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M118" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -6109,8 +6477,11 @@
       <c r="L119" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M119" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -6147,8 +6518,11 @@
       <c r="L120" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M120" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0</v>
       </c>
@@ -6185,8 +6559,11 @@
       <c r="L121" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M121" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -6223,8 +6600,11 @@
       <c r="L122" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M122" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0</v>
       </c>
@@ -6261,8 +6641,11 @@
       <c r="L123" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M123" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0</v>
       </c>
@@ -6299,8 +6682,11 @@
       <c r="L124" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M124" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -6336,6 +6722,9 @@
       </c>
       <c r="L125" t="s">
         <v>356</v>
+      </c>
+      <c r="M125" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
